--- a/scrapers/scraped-data/Norgesmesterskap ILCA e Optimist 2023_ilca 6.xlsx
+++ b/scrapers/scraped-data/Norgesmesterskap ILCA e Optimist 2023_ilca 6.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
